--- a/Dissertation_MSc_SoftwareEngineering_2025/JPetStore/interface/jpt_decomposer_result.xlsx
+++ b/Dissertation_MSc_SoftwareEngineering_2025/JPetStore/interface/jpt_decomposer_result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Achilles/dissertation/24007552/Dissertation_MSc_SoftwareEngineering_2025/JPetStore/interface/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FB83E7B-4E8F-694E-ABAA-9DB715965547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9886E687-06C3-0346-9345-942EA2D74FA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5860" yWindow="2140" windowWidth="28100" windowHeight="17360" xr2:uid="{068C92F6-B83B-FA48-9683-871414173B58}"/>
+    <workbookView xWindow="-31900" yWindow="2000" windowWidth="28100" windowHeight="17360" xr2:uid="{068C92F6-B83B-FA48-9683-871414173B58}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="42">
-  <si>
-    <t>Application</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>Operations</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,10 +79,6 @@
   </si>
   <si>
     <t>Intangible</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>JpetStore</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -503,7 +495,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -512,19 +504,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,7 +523,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -551,12 +531,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -893,22 +867,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B77F974-04DB-7043-85BD-0E8F15068E26}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="44.5" customWidth="1"/>
-    <col min="3" max="3" width="36.83203125" customWidth="1"/>
-    <col min="4" max="4" width="75.1640625" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="1" max="1" width="44.5" customWidth="1"/>
+    <col min="2" max="2" width="36.83203125" customWidth="1"/>
+    <col min="3" max="3" width="80.1640625" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20">
+    <row r="1" spans="1:4" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -919,365 +892,334 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="20">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="20">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="20">
+      <c r="A4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="20">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="20">
+      <c r="A6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="C6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="20">
+      <c r="A7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="20">
+      <c r="A8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="20">
+      <c r="A9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="20">
+      <c r="A10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="20">
+      <c r="A11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="20">
-      <c r="A2" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="20">
+      <c r="A12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="20">
+      <c r="A13" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="20">
+      <c r="A14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="20">
+      <c r="A15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="20">
+      <c r="A16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="20">
-      <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="20">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="20">
-      <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="20">
-      <c r="A6" s="1"/>
-      <c r="B6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="20">
-      <c r="A7" s="1"/>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="20">
-      <c r="A8" s="1"/>
-      <c r="B8" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="20">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="20">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="B16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="20">
-      <c r="A11" s="1"/>
-      <c r="B11" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="20">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="20">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="20">
-      <c r="A14" s="1"/>
-      <c r="B14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="4" t="s">
+      <c r="D16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="20">
+      <c r="A17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="C17" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="20">
-      <c r="A15" s="1"/>
-      <c r="B15" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" s="4" t="s">
+    </row>
+    <row r="18" spans="1:4" ht="20">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="C18" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="20">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="20">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="20">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="20">
+    </row>
+    <row r="19" spans="1:4" ht="20">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" ht="20">
+    </row>
+    <row r="20" spans="1:4" ht="20">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" ht="20">
+    </row>
+    <row r="21" spans="1:4" ht="20">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" ht="20">
+    </row>
+    <row r="22" spans="1:4" ht="20">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" ht="20">
+    </row>
+    <row r="23" spans="1:4" ht="20">
       <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" ht="20">
+    </row>
+    <row r="24" spans="1:4" ht="20">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" ht="20">
+    </row>
+    <row r="25" spans="1:4" ht="20">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" ht="20">
+    </row>
+    <row r="26" spans="1:4" ht="20">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" ht="20">
+    </row>
+    <row r="27" spans="1:4" ht="20">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" tooltip="ConsumeAction" display="https://schema.org/ConsumeAction" xr:uid="{4669DFD4-A582-CB41-BA4E-583A2324226E}"/>
-    <hyperlink ref="E2" r:id="rId2" tooltip="Action" display="https://schema.org/Action" xr:uid="{BD979998-4749-5C4D-B344-564C2F80B758}"/>
-    <hyperlink ref="D3" r:id="rId3" tooltip="Product" display="https://schema.org/Product" xr:uid="{030F74A8-E135-1C4F-AB7C-420A851CF63D}"/>
-    <hyperlink ref="E3" r:id="rId4" tooltip="Product" display="https://schema.org/Product" xr:uid="{22BF95D5-5130-3B42-AA6B-4A0A44978BC4}"/>
-    <hyperlink ref="D4" r:id="rId5" tooltip="ConsumeAction" display="https://schema.org/ConsumeAction" xr:uid="{180C9BAA-8515-D442-AC4C-FC93E549F018}"/>
-    <hyperlink ref="E4" r:id="rId6" tooltip="Action" display="https://schema.org/Action" xr:uid="{55B2CA9F-D318-7942-9471-2DD3AE8C5508}"/>
-    <hyperlink ref="D5" r:id="rId7" tooltip="Product" display="https://schema.org/Product" xr:uid="{DDC07B42-101B-7D4D-B99B-87634F0608EF}"/>
-    <hyperlink ref="E5" r:id="rId8" tooltip="Product" display="https://schema.org/Product" xr:uid="{947C7FA5-6DC0-714B-9032-F1660D6CF07F}"/>
-    <hyperlink ref="E6" r:id="rId9" tooltip="Intangible" display="https://schema.org/Intangible" xr:uid="{17F6C2CF-6F6B-B446-83B6-7E58B05CBFE4}"/>
-    <hyperlink ref="E7" r:id="rId10" tooltip="Intangible" display="https://schema.org/Intangible" xr:uid="{7D55F774-7178-7E4E-BB8E-DCE1338FDA69}"/>
-    <hyperlink ref="D8" r:id="rId11" tooltip="StructuredValue" display="https://schema.org/StructuredValue" xr:uid="{2A5507EF-6D5A-8C4A-BE39-1FA194D3F595}"/>
-    <hyperlink ref="E8" r:id="rId12" tooltip="Intangible" display="https://schema.org/Intangible" xr:uid="{C413506E-127A-F044-A8BC-D93D27DAD840}"/>
-    <hyperlink ref="D9" r:id="rId13" tooltip="ConsumeAction" display="https://schema.org/ConsumeAction" xr:uid="{53C60733-74B9-964C-A3D6-80922BAD4BBF}"/>
-    <hyperlink ref="E9" r:id="rId14" tooltip="Action" display="https://schema.org/Action" xr:uid="{E8471FA5-9771-4C49-95E0-8E388499E838}"/>
-    <hyperlink ref="D10" r:id="rId15" tooltip="FindAction" display="https://schema.org/FindAction" xr:uid="{35CB5B54-91E5-A149-A180-4298581B8D0C}"/>
-    <hyperlink ref="E10" r:id="rId16" tooltip="Action" display="https://schema.org/Action" xr:uid="{7BD07D34-F6B8-D644-9B6C-CB9E9BE71AF9}"/>
-    <hyperlink ref="D11" r:id="rId17" tooltip="Intangible" display="https://schema.org/Intangible" xr:uid="{392536A6-AC0A-FC4B-B996-C3A68E196232}"/>
-    <hyperlink ref="E11" r:id="rId18" tooltip="Intangible" display="https://schema.org/Intangible" xr:uid="{3CCFCFD0-3358-9A40-B6DF-EF55854930B5}"/>
-    <hyperlink ref="E12" r:id="rId19" tooltip="Action" display="https://schema.org/Action" xr:uid="{FD5914C8-7B6E-DF4C-B9CA-DF141CF5FD61}"/>
-    <hyperlink ref="E13" r:id="rId20" tooltip="Action" display="https://schema.org/Action" xr:uid="{F82C67F9-AF8E-F840-9B31-862B18C93FAA}"/>
-    <hyperlink ref="D14" r:id="rId21" tooltip="BankAccount" display="https://schema.org/BankAccount" xr:uid="{9FD5909A-58A4-8A46-BECB-ECB2557C0DBE}"/>
-    <hyperlink ref="E14" r:id="rId22" tooltip="Intangible" display="https://schema.org/Intangible" xr:uid="{88C64CDA-D00C-4F44-881C-3D96A9C3C0C9}"/>
-    <hyperlink ref="D15" r:id="rId23" tooltip="BankAccount" display="https://schema.org/BankAccount" xr:uid="{396B9AC0-C274-C140-82A8-1380096332A5}"/>
-    <hyperlink ref="E15" r:id="rId24" tooltip="Intangible" display="https://schema.org/Intangible" xr:uid="{FBF25A2A-9928-5945-94FC-2E0F43635667}"/>
-    <hyperlink ref="D16" r:id="rId25" tooltip="ConsumeAction" display="https://schema.org/ConsumeAction" xr:uid="{EF1B3D62-EA80-7248-BFDF-0246B992836E}"/>
-    <hyperlink ref="E16" r:id="rId26" tooltip="Action" display="https://schema.org/Action" xr:uid="{4F05E295-01DF-A541-A118-947477E331D6}"/>
-    <hyperlink ref="D17" r:id="rId27" tooltip="ConsumeAction" display="https://schema.org/ConsumeAction" xr:uid="{8A80892B-D9DC-D64F-8B74-98B9C873D5D7}"/>
-    <hyperlink ref="D18" r:id="rId28" tooltip="ConsumeAction" display="https://schema.org/ConsumeAction" xr:uid="{E6C2FC41-C60F-F840-B8D9-1EAA2BF9A02B}"/>
-    <hyperlink ref="E17" r:id="rId29" tooltip="Action" display="https://schema.org/Action" xr:uid="{02802593-0C98-E245-BB03-62547CC71DA1}"/>
-    <hyperlink ref="E18" r:id="rId30" tooltip="Action" display="https://schema.org/Action" xr:uid="{60024ED0-A3B0-C243-8FBD-00743DC99125}"/>
+    <hyperlink ref="C2" r:id="rId1" tooltip="ConsumeAction" display="https://schema.org/ConsumeAction" xr:uid="{4669DFD4-A582-CB41-BA4E-583A2324226E}"/>
+    <hyperlink ref="D2" r:id="rId2" tooltip="Action" display="https://schema.org/Action" xr:uid="{BD979998-4749-5C4D-B344-564C2F80B758}"/>
+    <hyperlink ref="C3" r:id="rId3" tooltip="Product" display="https://schema.org/Product" xr:uid="{030F74A8-E135-1C4F-AB7C-420A851CF63D}"/>
+    <hyperlink ref="D3" r:id="rId4" tooltip="Product" display="https://schema.org/Product" xr:uid="{22BF95D5-5130-3B42-AA6B-4A0A44978BC4}"/>
+    <hyperlink ref="C4" r:id="rId5" tooltip="ConsumeAction" display="https://schema.org/ConsumeAction" xr:uid="{180C9BAA-8515-D442-AC4C-FC93E549F018}"/>
+    <hyperlink ref="D4" r:id="rId6" tooltip="Action" display="https://schema.org/Action" xr:uid="{55B2CA9F-D318-7942-9471-2DD3AE8C5508}"/>
+    <hyperlink ref="C5" r:id="rId7" tooltip="Product" display="https://schema.org/Product" xr:uid="{DDC07B42-101B-7D4D-B99B-87634F0608EF}"/>
+    <hyperlink ref="D5" r:id="rId8" tooltip="Product" display="https://schema.org/Product" xr:uid="{947C7FA5-6DC0-714B-9032-F1660D6CF07F}"/>
+    <hyperlink ref="D6" r:id="rId9" tooltip="Intangible" display="https://schema.org/Intangible" xr:uid="{17F6C2CF-6F6B-B446-83B6-7E58B05CBFE4}"/>
+    <hyperlink ref="D7" r:id="rId10" tooltip="Intangible" display="https://schema.org/Intangible" xr:uid="{7D55F774-7178-7E4E-BB8E-DCE1338FDA69}"/>
+    <hyperlink ref="C8" r:id="rId11" tooltip="StructuredValue" display="https://schema.org/StructuredValue" xr:uid="{2A5507EF-6D5A-8C4A-BE39-1FA194D3F595}"/>
+    <hyperlink ref="D8" r:id="rId12" tooltip="Intangible" display="https://schema.org/Intangible" xr:uid="{C413506E-127A-F044-A8BC-D93D27DAD840}"/>
+    <hyperlink ref="C9" r:id="rId13" tooltip="ConsumeAction" display="https://schema.org/ConsumeAction" xr:uid="{53C60733-74B9-964C-A3D6-80922BAD4BBF}"/>
+    <hyperlink ref="D9" r:id="rId14" tooltip="Action" display="https://schema.org/Action" xr:uid="{E8471FA5-9771-4C49-95E0-8E388499E838}"/>
+    <hyperlink ref="C10" r:id="rId15" tooltip="FindAction" display="https://schema.org/FindAction" xr:uid="{35CB5B54-91E5-A149-A180-4298581B8D0C}"/>
+    <hyperlink ref="D10" r:id="rId16" tooltip="Action" display="https://schema.org/Action" xr:uid="{7BD07D34-F6B8-D644-9B6C-CB9E9BE71AF9}"/>
+    <hyperlink ref="C11" r:id="rId17" tooltip="Intangible" display="https://schema.org/Intangible" xr:uid="{392536A6-AC0A-FC4B-B996-C3A68E196232}"/>
+    <hyperlink ref="D11" r:id="rId18" tooltip="Intangible" display="https://schema.org/Intangible" xr:uid="{3CCFCFD0-3358-9A40-B6DF-EF55854930B5}"/>
+    <hyperlink ref="D12" r:id="rId19" tooltip="Action" display="https://schema.org/Action" xr:uid="{FD5914C8-7B6E-DF4C-B9CA-DF141CF5FD61}"/>
+    <hyperlink ref="D13" r:id="rId20" tooltip="Action" display="https://schema.org/Action" xr:uid="{F82C67F9-AF8E-F840-9B31-862B18C93FAA}"/>
+    <hyperlink ref="C14" r:id="rId21" tooltip="BankAccount" display="https://schema.org/BankAccount" xr:uid="{9FD5909A-58A4-8A46-BECB-ECB2557C0DBE}"/>
+    <hyperlink ref="D14" r:id="rId22" tooltip="Intangible" display="https://schema.org/Intangible" xr:uid="{88C64CDA-D00C-4F44-881C-3D96A9C3C0C9}"/>
+    <hyperlink ref="C15" r:id="rId23" tooltip="BankAccount" display="https://schema.org/BankAccount" xr:uid="{396B9AC0-C274-C140-82A8-1380096332A5}"/>
+    <hyperlink ref="D15" r:id="rId24" tooltip="Intangible" display="https://schema.org/Intangible" xr:uid="{FBF25A2A-9928-5945-94FC-2E0F43635667}"/>
+    <hyperlink ref="C16" r:id="rId25" tooltip="ConsumeAction" display="https://schema.org/ConsumeAction" xr:uid="{EF1B3D62-EA80-7248-BFDF-0246B992836E}"/>
+    <hyperlink ref="D16" r:id="rId26" tooltip="Action" display="https://schema.org/Action" xr:uid="{4F05E295-01DF-A541-A118-947477E331D6}"/>
+    <hyperlink ref="C17" r:id="rId27" tooltip="ConsumeAction" display="https://schema.org/ConsumeAction" xr:uid="{8A80892B-D9DC-D64F-8B74-98B9C873D5D7}"/>
+    <hyperlink ref="C18" r:id="rId28" tooltip="ConsumeAction" display="https://schema.org/ConsumeAction" xr:uid="{E6C2FC41-C60F-F840-B8D9-1EAA2BF9A02B}"/>
+    <hyperlink ref="D17" r:id="rId29" tooltip="Action" display="https://schema.org/Action" xr:uid="{02802593-0C98-E245-BB03-62547CC71DA1}"/>
+    <hyperlink ref="D18" r:id="rId30" tooltip="Action" display="https://schema.org/Action" xr:uid="{60024ED0-A3B0-C243-8FBD-00743DC99125}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
